--- a/Excel/LegacyMapConfig.xlsx
+++ b/Excel/LegacyMapConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Power1</t>
-  </si>
-  <si>
-    <t>Power2</t>
-  </si>
-  <si>
-    <t>Power3</t>
+    <t>PowerList</t>
   </si>
   <si>
     <t>Id</t>
@@ -53,13 +47,25 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>传世圣地</t>
   </si>
   <si>
+    <t>400,200,200</t>
+  </si>
+  <si>
     <t>传世神域</t>
   </si>
   <si>
+    <t>200,400,200</t>
+  </si>
+  <si>
     <t>传世秘境</t>
+  </si>
+  <si>
+    <t>200,200,400</t>
   </si>
 </sst>
 </file>
@@ -699,6 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1018,20 +1025,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="16365" width="9" style="2"/>
-    <col min="16366" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="16363" width="9" style="2"/>
+    <col min="16364" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
@@ -1042,7 +1049,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1054,18 +1061,12 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1073,86 +1074,56 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>200</v>
-      </c>
-      <c r="G6" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
-        <v>200</v>
-      </c>
-      <c r="F7" s="1">
-        <v>400</v>
-      </c>
-      <c r="G7" s="1">
-        <v>200</v>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1">
-        <v>200</v>
-      </c>
-      <c r="G8" s="1">
-        <v>400</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/LegacyMapConfig.xlsx
+++ b/Excel/LegacyMapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>PowerList</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -56,16 +59,25 @@
     <t>400,200,200</t>
   </si>
   <si>
+    <t>掉落战士传世装备</t>
+  </si>
+  <si>
     <t>传世神域</t>
   </si>
   <si>
     <t>200,400,200</t>
   </si>
   <si>
+    <t>掉落法师传世装备</t>
+  </si>
+  <si>
     <t>传世秘境</t>
   </si>
   <si>
     <t>200,200,400</t>
+  </si>
+  <si>
+    <t>掉落道士传世装备</t>
   </si>
 </sst>
 </file>
@@ -1025,19 +1037,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="16363" width="9" style="2"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16363" width="9" style="2"/>
     <col min="16364" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1049,7 +1062,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1061,12 +1074,15 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1074,56 +1090,71 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:5">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:6">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:5">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:6">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:5">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/LegacyMapConfig.xlsx
+++ b/Excel/LegacyMapConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>PowerList</t>
   </si>
   <si>
+    <t>PowerRiseList</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>400,200,200</t>
+  </si>
+  <si>
+    <t>500,500,500</t>
   </si>
   <si>
     <t>掉落战士传世装备</t>
@@ -710,14 +716,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,21 +1045,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16363" width="9" style="2"/>
-    <col min="16364" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16364" width="9" style="2"/>
+    <col min="16365" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
@@ -1062,7 +1070,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1077,12 +1085,15 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1093,68 +1104,83 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:6">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:6">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
